--- a/img/bill_template.xlsx
+++ b/img/bill_template.xlsx
@@ -245,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,6 +281,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -323,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,6 +396,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -716,7 +749,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -803,15 +836,15 @@
       <c r="F10" s="23"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:8" ht="53" customHeight="1">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -920,6 +953,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A14:F14"/>
@@ -929,8 +964,6 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.55000000000000004" bottom="0.55000000000000004" header="0.30000000000000004" footer="0.30000000000000004"/>
